--- a/dimensions/Countries of interest.xlsx
+++ b/dimensions/Countries of interest.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$B$12</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$B$12</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$B$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$B$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -89,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
   </si>
 </sst>
 </file>
@@ -98,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,11 +143,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,7 +204,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,21 +229,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:18"/>
+  <dimension ref="1:19"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="21.5102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="23.3265306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,6 +389,14 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>3</v>
       </c>
     </row>
